--- a/items/ArmorTypes.xlsx
+++ b/items/ArmorTypes.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>S</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>Light Armor</t>
+  </si>
+  <si>
+    <t>Medium Armor</t>
+  </si>
+  <si>
+    <t>Heavy Armor</t>
+  </si>
+  <si>
+    <t>Shield</t>
   </si>
   <si>
     <t>Padded</t>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Ring Mail</t>
-  </si>
-  <si>
-    <t>Shield</t>
   </si>
   <si>
     <t>Leather</t>
@@ -346,47 +343,47 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
